--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Orbit\Unir_Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\giit\Concatenate_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0034E1E7-B0CB-41B8-B85B-2B92A77A7969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5F928F-0A6D-4DF7-8328-30AEEABC1039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C179B8E8-E478-4516-86D1-7860084A2F06}"/>
   </bookViews>
@@ -504,17 +504,17 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
